--- a/data/management/Management_information_KAL_2019.xlsx
+++ b/data/management/Management_information_KAL_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Downloads/New_Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D025211-3BF6-5C4D-A31E-90FDAC21E0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89053392-4B8B-6C4B-BCD2-F04C63143C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,12 +213,6 @@
     <t>high nitrogen, with fungicide (HN_WF)</t>
   </si>
   <si>
-    <t>Zückerrüben</t>
-  </si>
-  <si>
-    <t>Wintergerste</t>
-  </si>
-  <si>
     <t>Malibu</t>
   </si>
   <si>
@@ -340,6 +334,12 @@
   </si>
   <si>
     <t>2019-07-26 to 2019-08-02</t>
+  </si>
+  <si>
+    <t>sugar beet</t>
+  </si>
+  <si>
+    <t>winter barley</t>
   </si>
 </sst>
 </file>
@@ -734,10 +734,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="53.25" customHeight="1">
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" s="18"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>19</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="48">
         <v>2005</v>
       </c>
       <c r="D22" s="30"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="53"/>
+      <c r="G22" s="54"/>
       <c r="H22" s="25"/>
       <c r="L22" s="22"/>
     </row>
@@ -1157,13 +1157,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="53"/>
+      <c r="G23" s="54"/>
       <c r="H23" s="25"/>
       <c r="L23" s="22"/>
     </row>
@@ -1172,7 +1172,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C24" s="18"/>
       <c r="F24" s="29"/>
@@ -1185,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C25" s="18"/>
       <c r="F25" s="29"/>
@@ -1209,7 +1209,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" s="41"/>
       <c r="F27" s="29"/>
@@ -1273,7 +1273,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C33" s="42"/>
       <c r="L33" s="22"/>
@@ -1283,7 +1283,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" s="42"/>
       <c r="L34" s="22"/>
@@ -1293,7 +1293,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="41"/>
       <c r="L35" s="22"/>
@@ -1327,7 +1327,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C39" s="43"/>
       <c r="L39" s="22"/>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40"/>
       <c r="L40" s="22"/>
@@ -1399,23 +1399,23 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="10"/>
       <c r="D44" s="34"/>
       <c r="E44" s="49"/>
       <c r="F44" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G44" s="8">
         <v>43409</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J44" s="27" t="s">
         <v>48</v>
@@ -1425,14 +1425,14 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
       <c r="E45" s="34"/>
       <c r="F45" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="31"/>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="34"/>
@@ -1458,10 +1458,10 @@
         <v>43621</v>
       </c>
       <c r="H46" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I46" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J46" s="27" t="s">
         <v>53</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="10"/>
@@ -1484,10 +1484,10 @@
         <v>43572</v>
       </c>
       <c r="H47" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47" s="51" t="s">
         <v>91</v>
-      </c>
-      <c r="I47" s="51" t="s">
-        <v>93</v>
       </c>
       <c r="J47" s="27" t="s">
         <v>54</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="10"/>
@@ -1510,10 +1510,10 @@
         <v>43595</v>
       </c>
       <c r="H48" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I48" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J48" s="27" t="s">
         <v>56</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="10"/>
@@ -1543,14 +1543,14 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
       <c r="E50" s="23"/>
       <c r="F50" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="10"/>
@@ -1574,10 +1574,10 @@
         <v>43553</v>
       </c>
       <c r="H51" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I51" s="51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="10"/>
@@ -1598,10 +1598,10 @@
         <v>43570</v>
       </c>
       <c r="H52" s="51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I52" s="51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" s="23" t="s">
         <v>47</v>
@@ -1660,19 +1660,19 @@
         <v>17</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G55" s="8">
         <v>43409</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J55" s="27" t="s">
         <v>48</v>
@@ -1682,14 +1682,14 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
       <c r="E56" s="34"/>
       <c r="F56" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="31"/>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="34"/>
@@ -1715,10 +1715,10 @@
         <v>43621</v>
       </c>
       <c r="H57" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I57" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J57" s="27" t="s">
         <v>53</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="10"/>
@@ -1741,10 +1741,10 @@
         <v>43572</v>
       </c>
       <c r="H58" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="I58" s="51" t="s">
         <v>91</v>
-      </c>
-      <c r="I58" s="51" t="s">
-        <v>93</v>
       </c>
       <c r="J58" s="27" t="s">
         <v>54</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="10"/>
@@ -1767,10 +1767,10 @@
         <v>43595</v>
       </c>
       <c r="H59" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I59" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J59" s="27" t="s">
         <v>56</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="10"/>
@@ -1800,14 +1800,14 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="10"/>
       <c r="D61" s="11"/>
       <c r="E61" s="23"/>
       <c r="F61" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="10"/>
@@ -1831,10 +1831,10 @@
         <v>43553</v>
       </c>
       <c r="H62" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I62" s="51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="10"/>
@@ -1855,10 +1855,10 @@
         <v>43570</v>
       </c>
       <c r="H63" s="51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I63" s="51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
@@ -1924,19 +1924,19 @@
         <v>45</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G66" s="8">
         <v>43409</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J66" s="27" t="s">
         <v>48</v>
@@ -1957,10 +1957,10 @@
         <v>45</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="31"/>
@@ -1984,7 +1984,7 @@
         <v>37</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="31" t="s">
         <v>52</v>
@@ -1993,10 +1993,10 @@
         <v>43621</v>
       </c>
       <c r="H68" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I68" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J68" s="27" t="s">
         <v>53</v>
@@ -2018,10 +2018,10 @@
         <v>43572</v>
       </c>
       <c r="H69" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="I69" s="51" t="s">
         <v>91</v>
-      </c>
-      <c r="I69" s="51" t="s">
-        <v>93</v>
       </c>
       <c r="J69" s="27" t="s">
         <v>54</v>
@@ -2043,10 +2043,10 @@
         <v>43595</v>
       </c>
       <c r="H70" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I70" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J70" s="27" t="s">
         <v>56</v>
@@ -2081,7 +2081,7 @@
       <c r="D72" s="14"/>
       <c r="E72" s="12"/>
       <c r="F72" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -2104,10 +2104,10 @@
         <v>43553</v>
       </c>
       <c r="H73" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I73" s="51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J73" s="17"/>
       <c r="K73" s="9"/>
@@ -2127,10 +2127,10 @@
         <v>43570</v>
       </c>
       <c r="H74" s="51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I74" s="51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J74" s="17"/>
       <c r="K74" s="9"/>
@@ -2144,18 +2144,18 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" s="54">
+        <v>87</v>
+      </c>
+      <c r="B78" s="53">
         <v>43398</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B79" s="50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
